--- a/仕様書/カラマリテープ_仕様書_ステージセレクト.xlsx
+++ b/仕様書/カラマリテープ_仕様書_ステージセレクト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松田 優志\日本ゲーム大賞 アマチュア部門\JGA_2020_PROJECT\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA67FD5-2CDA-474E-B954-9D0507EE699C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD742A9A-011F-4FF9-B34C-C3F1A069B370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="125">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -6949,16 +6949,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6973,8 +6973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="4465320"/>
-          <a:ext cx="129540" cy="2560320"/>
+          <a:off x="6652260" y="4067810"/>
+          <a:ext cx="189230" cy="3247390"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
@@ -7015,16 +7015,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7039,8 +7039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9532620" y="2209800"/>
-          <a:ext cx="91440" cy="4389120"/>
+          <a:off x="9367520" y="1397000"/>
+          <a:ext cx="170180" cy="5143500"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
@@ -7081,16 +7081,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>93980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>66040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7105,8 +7105,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9136380" y="3893820"/>
-          <a:ext cx="777240" cy="304800"/>
+          <a:off x="9055100" y="3632200"/>
+          <a:ext cx="772160" cy="224790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7137,7 +7137,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -7158,16 +7158,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>100330</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>46990</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7182,8 +7182,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6195060" y="5600700"/>
-          <a:ext cx="822960" cy="304800"/>
+          <a:off x="5861050" y="5570220"/>
+          <a:ext cx="746760" cy="307340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7214,7 +7214,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -7235,16 +7235,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>157480</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7259,8 +7259,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7286625" y="4200525"/>
-          <a:ext cx="133350" cy="2505075"/>
+          <a:off x="6711950" y="10365740"/>
+          <a:ext cx="166370" cy="3303270"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
@@ -7301,16 +7301,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>39370</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>73</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7325,8 +7325,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9648825" y="1914525"/>
-          <a:ext cx="85725" cy="4448175"/>
+          <a:off x="9454515" y="7694295"/>
+          <a:ext cx="104140" cy="5172710"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
@@ -7367,170 +7367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>27372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3305E4-D2D7-4A0B-9EE6-EFC6796D6E46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9248775" y="3638550"/>
-          <a:ext cx="781050" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>１９２０</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D0F577-7EB5-41CE-A5AA-638A1C483A20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6267450" y="5314950"/>
-          <a:ext cx="828675" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>１０８０</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139188</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>100019</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>63923</xdr:rowOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>20319</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7545,8 +7391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7421881" y="4342888"/>
-          <a:ext cx="4357058" cy="2553635"/>
+          <a:off x="6873240" y="4055812"/>
+          <a:ext cx="5152389" cy="3325428"/>
           <a:chOff x="7419341" y="4340348"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -7599,8 +7445,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7656665" y="4577740"/>
-            <a:ext cx="2364365" cy="1343788"/>
+            <a:off x="7617897" y="4614225"/>
+            <a:ext cx="2364362" cy="1345818"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7636,7 +7482,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -7733,7 +7579,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -7743,7 +7589,7 @@
               <a:t>ステージ</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="1">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -7752,7 +7598,7 @@
               </a:rPr>
               <a:t>2</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -7812,7 +7658,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -7822,7 +7668,7 @@
               <a:t>ステージ</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="1">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -7831,7 +7677,7 @@
               </a:rPr>
               <a:t>3</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -7891,7 +7737,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -7901,7 +7747,7 @@
               <a:t>ステージ</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="1">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -7910,7 +7756,7 @@
               </a:rPr>
               <a:t>4</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -7970,7 +7816,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -7980,7 +7826,7 @@
               <a:t>ステージ</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="1">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -7989,7 +7835,7 @@
               </a:rPr>
               <a:t>5</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -8119,7 +7965,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -8129,7 +7975,7 @@
               <a:t>ステージ</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="1">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -8138,7 +7984,7 @@
               </a:rPr>
               <a:t>1</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -8154,689 +8000,6 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EEAB7D-4AE6-47D0-91ED-0973D2CABD1F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7679016" y="6166222"/>
-            <a:ext cx="665293" cy="441562"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>65542</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>44115</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="68" name="グループ化 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B973D7-8EC9-42C7-B555-983CC78BCB0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7381240" y="10638790"/>
-          <a:ext cx="4363222" cy="2551095"/>
-          <a:chOff x="7419341" y="4344158"/>
-          <a:chExt cx="4361952" cy="2553635"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="69" name="図 68">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2014A9-784F-4261-8BFC-877A5E678A28}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7438366" y="4344158"/>
-            <a:ext cx="4340887" cy="2553635"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="正方形/長方形 69">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D47207-0C9A-4A67-897C-C7A89802B39C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7656665" y="4577740"/>
-            <a:ext cx="2364365" cy="1343788"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ステージ１</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="71" name="図 70">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9210E292-723A-4D6D-AB39-5023670D1A69}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7419341" y="6094592"/>
-            <a:ext cx="4361952" cy="570085"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="正方形/長方形 71">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF446700-3AAF-49E5-B749-1FCB9BA65E68}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8545050" y="6234570"/>
-            <a:ext cx="576175" cy="309224"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ステージ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="正方形/長方形 72">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC710C68-AB31-4479-93FC-DC9AF59FCAF0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9378854" y="6234570"/>
-            <a:ext cx="579987" cy="309224"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ステージ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>3</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="正方形/長方形 73">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3440B8-BD25-48AB-B71E-1A3C1B358441}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10179666" y="6234570"/>
-            <a:ext cx="588872" cy="309211"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ステージ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>4</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="正方形/長方形 74">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA8C885-5780-4CA2-9D19-7DDC2D4AC9A8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11019824" y="6226925"/>
-            <a:ext cx="572367" cy="300319"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ステージ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>5</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="76" name="図 75">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C806ACF0-B89A-4BA4-8AB7-25A0C0F3AE75}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="10302313" y="4594278"/>
-            <a:ext cx="588522" cy="627243"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="77" name="図 76">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C40E32-501E-40E3-B5E1-FB1626841A83}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10183478" y="5121104"/>
-            <a:ext cx="1427752" cy="777516"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="正方形/長方形 77">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C756880B-3493-47CE-8445-1F9DEA0BF710}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7656666" y="6171123"/>
-            <a:ext cx="689129" cy="427569"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ステージ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="正方形/長方形 78">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEE9894-18E4-4756-942C-D309AB6320C5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8912,7 +8075,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8933,6 +8096,2273 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>21589</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>22102</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="グループ化 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1784FCF-1CDD-4C48-94F7-87BFDAB8AF40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6880860" y="10361930"/>
+          <a:ext cx="5146039" cy="3334262"/>
+          <a:chOff x="7419341" y="4340348"/>
+          <a:chExt cx="4361952" cy="2553635"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="36" name="図 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF4392E-B4F3-484E-9CBE-3E49A8C0D28B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7434573" y="4340348"/>
+            <a:ext cx="4345763" cy="2553635"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B25017D-F41E-4B94-AE16-6A2F44778BBC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7656665" y="4577740"/>
+            <a:ext cx="2364365" cy="1343788"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ステージ１</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="38" name="図 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131662A3-3A26-4CC5-9E67-02989F903B5F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7419341" y="6094592"/>
+            <a:ext cx="4361952" cy="570085"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3234BF-FC87-45C3-A124-8251F5A39D8C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8545050" y="6234570"/>
+            <a:ext cx="576175" cy="309224"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE53373-9B74-4109-B2AF-9E58A195EFEE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9378854" y="6234570"/>
+            <a:ext cx="579987" cy="309224"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="正方形/長方形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D0A52D-A091-4206-88EA-568267B5FB36}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10179666" y="6234570"/>
+            <a:ext cx="588872" cy="309211"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="正方形/長方形 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A088E7F8-6C55-40D4-9BF1-E91243AA4313}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11019824" y="6226925"/>
+            <a:ext cx="572367" cy="300319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="47" name="図 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22C26821-61CE-4998-968B-CCAC300F450F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="10302313" y="4594278"/>
+            <a:ext cx="588522" cy="627243"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="48" name="図 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE3894D-CE72-4561-BA34-2A881CD19A8D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10183478" y="5121104"/>
+            <a:ext cx="1427752" cy="777516"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A834DD08-E2A8-4566-A182-D8419AEA12B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7656666" y="6171123"/>
+            <a:ext cx="689129" cy="427569"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="正方形/長方形 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30A8D6A-3849-43DD-9FAD-E715F27E19BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7679016" y="6166222"/>
+            <a:ext cx="665293" cy="441562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278981E2-FA8E-4DEC-BCD6-EE4B460E70D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9050020" y="9960610"/>
+          <a:ext cx="769620" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>１９２０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4255D5-202A-4245-B9F7-47E2B5BE8AA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5866130" y="11885930"/>
+          <a:ext cx="750570" cy="311150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>１０８０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="左中かっこ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2927506-7F97-4CA6-935B-6455D6A95212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8438515" y="2966085"/>
+          <a:ext cx="151130" cy="2768600"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50580"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>113030</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2D4EE9-17FC-406D-9F1F-5A5C57D55D52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8144510" y="4048760"/>
+          <a:ext cx="769620" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>１０００</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="左中かっこ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB34DFB5-3562-4E1E-A6A0-7F7A9CF4AC57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6918960" y="4403090"/>
+          <a:ext cx="147320" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 29638"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>54610</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E8F161-5AFD-4E96-9677-9BB0E17FE5AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6164580" y="4823460"/>
+          <a:ext cx="610870" cy="219710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>５５０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="左中かっこ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A015EB8E-E4D5-471B-B60A-9E6646DAB140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9888220" y="4079240"/>
+          <a:ext cx="162560" cy="325120"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50102"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D99AD82-BA0E-4E91-BEE3-70B5E987E744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067290" y="4117340"/>
+          <a:ext cx="615950" cy="227330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>１００</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>93980</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="左中かっこ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13FF7E3-26A2-472C-BA30-442076E13153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6962140" y="4246880"/>
+          <a:ext cx="101600" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50580"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AB7402-F9BE-433F-AF3F-68187913C626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6804660" y="4091940"/>
+          <a:ext cx="472440" cy="204470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>５０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="左中かっこ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6822F28-3428-46FB-9144-EA3F4847D79F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6918960" y="6164580"/>
+          <a:ext cx="203200" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50102"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>67310</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20880EAD-62E7-454B-8647-245A99D5AF19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6316980" y="6134100"/>
+          <a:ext cx="471170" cy="208280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>２０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="左中かっこ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90ACF05-C995-4BED-8304-0A7A8B1B3A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7993380" y="7087870"/>
+          <a:ext cx="175260" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50102"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0A6E59-02CA-400D-A824-7C7B647E6F59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8244840" y="7117080"/>
+          <a:ext cx="617220" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>１１０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="左中かっこ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5236909-8D4F-4BCF-A8F5-D329113A26D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9006840" y="6339840"/>
+          <a:ext cx="205740" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50102"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="左中かっこ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00BBFE9-2C51-47CF-BE54-77AA780610C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9014460" y="6926580"/>
+          <a:ext cx="208280" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50102"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>67310</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>62230</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE015910-092C-4011-9B84-A345902D2AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8548370" y="6329680"/>
+          <a:ext cx="474980" cy="210820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>４０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9E14A0-E363-468E-8495-5935923BDCD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8577580" y="6880860"/>
+          <a:ext cx="480060" cy="210820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>４０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>43180</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="左中かっこ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635C31B3-5BFE-4DC1-86FE-F2C450592AEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924040" y="6452870"/>
+          <a:ext cx="205740" cy="513080"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50102"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>90170</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F93777-A920-43DF-B598-0EE4DF329F2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6330950" y="6586220"/>
+          <a:ext cx="619760" cy="219710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>２２０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>55879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>114303</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="左中かっこ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894B0245-9D4F-42EB-86A0-F7AE3ECCE330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7510780" y="6756400"/>
+          <a:ext cx="134624" cy="754382"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50102"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B7E0ED-5BAC-438E-8335-DD1DE3B0F735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7284720" y="7216140"/>
+          <a:ext cx="619760" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>３２０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12459,8 +13889,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1742440" y="9175750"/>
-          <a:ext cx="4545330" cy="2701290"/>
+          <a:off x="1731010" y="8973820"/>
+          <a:ext cx="4505960" cy="2650490"/>
           <a:chOff x="7419341" y="4344158"/>
           <a:chExt cx="4361952" cy="2553635"/>
         </a:xfrm>
@@ -13142,8 +14572,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2021379" y="14216380"/>
-          <a:ext cx="4514041" cy="2707640"/>
+          <a:off x="2002329" y="13910310"/>
+          <a:ext cx="4484831" cy="2650490"/>
           <a:chOff x="7438366" y="4344158"/>
           <a:chExt cx="4343883" cy="2553635"/>
         </a:xfrm>
@@ -15822,7 +17252,9 @@
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="21"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="36">
+        <v>44294</v>
+      </c>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
@@ -15833,7 +17265,9 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
       <c r="S26" s="32"/>
-      <c r="T26" s="37"/>
+      <c r="T26" s="37" t="s">
+        <v>7</v>
+      </c>
       <c r="U26" s="37"/>
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
